--- a/fichiers/Chute.xlsx
+++ b/fichiers/Chute.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Maurin/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Maurin/Documents/Enseignements/Git/IntroPython/fichiers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F8C9A6E-1551-FE4C-A14C-1DF56F0803C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7028D59D-D1FC-D340-A876-92B93BBA91A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15820" xr2:uid="{44328A92-BBC4-5A45-A758-0F8779C373AB}"/>
   </bookViews>
@@ -151,10 +151,10 @@
     <t>889.5055347082815</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>z</t>
+    <t>Position_x</t>
+  </si>
+  <si>
+    <t>Position_z</t>
   </si>
 </sst>
 </file>
@@ -216,7 +216,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -504,7 +504,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -515,7 +515,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
